--- a/Reporter/Excel_Report.xlsx
+++ b/Reporter/Excel_Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\utpal\Desktop\Advantage_Shopping\Reporter\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58CFE3F-4662-4646-9DF8-3657CBAA53B3}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EABB4AD2-FB29-4EBB-B4D4-ED9A13E7B232}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="25">
   <si>
     <t>Step</t>
   </si>
@@ -91,13 +91,19 @@
   </si>
   <si>
     <t>Click on the Pay_now</t>
+  </si>
+  <si>
+    <t>Pay_now is not avaliable</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +122,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00FF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -147,12 +160,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,7 +505,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
@@ -674,6 +688,686 @@
       </c>
       <c r="E10" s="4">
         <v>43242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.73791666666666667</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.73813657407407407</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.7381712962962963</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.73821759259259256</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.75334490740740734</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.7534143518518519</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.75344907407407413</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.7534953703703704</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.7537962962962963</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="3">
+        <v>0.75407407407407412</v>
+      </c>
+      <c r="E20" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="3">
+        <v>0.75410879629629635</v>
+      </c>
+      <c r="E21" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="3">
+        <v>0.75414351851851846</v>
+      </c>
+      <c r="E22" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.75420138888888888</v>
+      </c>
+      <c r="E23" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="3">
+        <v>0.76892361111111107</v>
+      </c>
+      <c r="E24" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="3">
+        <v>0.76907407407407413</v>
+      </c>
+      <c r="E25" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="3">
+        <v>0.76914351851851848</v>
+      </c>
+      <c r="E26" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0.76920138888888889</v>
+      </c>
+      <c r="E27" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>13</v>
+      </c>
+      <c r="B28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="3">
+        <v>0.76953703703703702</v>
+      </c>
+      <c r="E28" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="3">
+        <v>0.76982638888888888</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="3">
+        <v>0.76984953703703696</v>
+      </c>
+      <c r="E30" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="3">
+        <v>0.76991898148148152</v>
+      </c>
+      <c r="E31" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="3">
+        <v>0.76997685185185183</v>
+      </c>
+      <c r="E32" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="3">
+        <v>0.77361111111111114</v>
+      </c>
+      <c r="E33" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="3">
+        <v>0.77371527777777782</v>
+      </c>
+      <c r="E34" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0.77376157407407409</v>
+      </c>
+      <c r="E35" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="3">
+        <v>0.77381944444444439</v>
+      </c>
+      <c r="E36" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="3">
+        <v>0.77388888888888896</v>
+      </c>
+      <c r="E37" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="3">
+        <v>0.77418981481481486</v>
+      </c>
+      <c r="E38" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="3">
+        <v>0.77422453703703698</v>
+      </c>
+      <c r="E39" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="3">
+        <v>0.77428240740740739</v>
+      </c>
+      <c r="E40" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" s="3">
+        <v>0.77516203703703701</v>
+      </c>
+      <c r="E41" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="3">
+        <v>0.77630787037037041</v>
+      </c>
+      <c r="E42" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0.77638888888888891</v>
+      </c>
+      <c r="E43" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.7764699074074074</v>
+      </c>
+      <c r="E44" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3">
+        <v>0.77652777777777782</v>
+      </c>
+      <c r="E45" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3">
+        <v>0.77686342592592583</v>
+      </c>
+      <c r="E46" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0.7771527777777778</v>
+      </c>
+      <c r="E47" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3">
+        <v>0.77719907407407407</v>
+      </c>
+      <c r="E48" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3">
+        <v>0.77725694444444438</v>
+      </c>
+      <c r="E49" s="4">
+        <v>43243</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0.77731481481481479</v>
+      </c>
+      <c r="E50" s="4">
+        <v>43243</v>
       </c>
     </row>
   </sheetData>
